--- a/xlsx-templates/qingjia.xlsx
+++ b/xlsx-templates/qingjia.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF47332-65CB-8B46-AB93-89640740448B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45880" yWindow="460" windowWidth="22920" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="17080" yWindow="460" windowWidth="34120" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -175,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,11 +236,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +293,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -277,6 +325,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,37 +664,61 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="13">
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
